--- a/data/inventory/lci-euro6.xlsx
+++ b/data/inventory/lci-euro6.xlsx
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P810"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -764,7 +764,7 @@
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>1.00000004749745E-6</v>
       </c>
       <c r="D11" t="s">
@@ -782,7 +782,7 @@
       <c r="A12" t="s">
         <v>42</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>1.11254761577584E-7</v>
       </c>
       <c r="D12" t="s">
@@ -801,8 +801,8 @@
       <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B13">
-        <v>0.17307241821289099</v>
+      <c r="B13" s="8">
+        <v>0.166780548095703</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -820,7 +820,7 @@
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="8">
         <v>2.7153024449944499E-5</v>
       </c>
       <c r="D14" t="s">
@@ -839,7 +839,7 @@
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="8">
         <v>4.6745906583964799E-6</v>
       </c>
       <c r="D15" t="s">
@@ -858,7 +858,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="8">
         <v>1.5988708764780299E-7</v>
       </c>
       <c r="D16" t="s">
@@ -877,7 +877,7 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="8">
         <v>6.50207512080669E-6</v>
       </c>
       <c r="D17" t="s">
@@ -896,8 +896,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>5.0659906864166304E-4</v>
+      <c r="B18" s="8">
+        <v>4.8446384072303798E-4</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -915,8 +915,8 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19">
-        <v>1.9147011917084501E-6</v>
+      <c r="B19" s="8">
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
@@ -934,8 +934,8 @@
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
-        <v>8.71067575644702E-7</v>
+      <c r="B20" s="8">
+        <v>8.3940080367028704E-7</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -954,7 +954,7 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C21" t="s">
@@ -976,7 +976,7 @@
       <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="8">
         <v>7.1935534894391986E-6</v>
       </c>
       <c r="C22" t="s">
@@ -998,7 +998,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="8">
         <v>-1.6748119156556479E-6</v>
       </c>
       <c r="C23" t="s">
@@ -1020,8 +1020,8 @@
       <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="B24">
-        <v>5.4441726684570299E-2</v>
+      <c r="B24" s="8">
+        <v>5.2462551116943403E-2</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1042,7 +1042,7 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="8">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C25" t="s">
@@ -1064,7 +1064,7 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="8">
         <v>8.9745285174935559E-4</v>
       </c>
       <c r="C26" t="s">
@@ -1086,7 +1086,7 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="8">
         <v>6.5481133557768201E-4</v>
       </c>
       <c r="C27" t="s">
@@ -1108,7 +1108,7 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="8">
         <v>0</v>
       </c>
       <c r="C28" t="s">
@@ -1130,7 +1130,7 @@
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="8">
         <v>5.3951651170793992E-6</v>
       </c>
       <c r="C29" t="s">
@@ -1152,7 +1152,7 @@
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="8">
         <v>1.010340173718924E-3</v>
       </c>
       <c r="C30" t="s">
@@ -1174,7 +1174,7 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="8">
         <v>-1.8422293291589251E-5</v>
       </c>
       <c r="C31" t="s">
@@ -1196,7 +1196,7 @@
       <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="8">
         <v>-1.077339028151379E-4</v>
       </c>
       <c r="C32" t="s">
@@ -1218,7 +1218,7 @@
       <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="8">
         <v>0</v>
       </c>
       <c r="C33" t="s">
@@ -1240,7 +1240,7 @@
       <c r="A34" t="s">
         <v>4</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="8">
         <v>1.65E-4</v>
       </c>
       <c r="C34" t="s">
@@ -1330,7 +1330,7 @@
       <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="8">
         <v>1.00000004749745E-6</v>
       </c>
       <c r="D43" t="s">
@@ -1347,7 +1347,7 @@
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="8">
         <v>1.11254761577584E-7</v>
       </c>
       <c r="D44" t="s">
@@ -1364,8 +1364,8 @@
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45">
-        <v>0.101524017333984</v>
+      <c r="B45" s="8">
+        <v>9.7073432922363298E-2</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1381,7 +1381,7 @@
       <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="8">
         <v>2.7153024449944499E-5</v>
       </c>
       <c r="D46" t="s">
@@ -1398,7 +1398,7 @@
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="8">
         <v>4.6745906583964799E-6</v>
       </c>
       <c r="D47" t="s">
@@ -1415,7 +1415,7 @@
       <c r="A48" t="s">
         <v>38</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="8">
         <v>1.5988708764780299E-7</v>
       </c>
       <c r="D48" t="s">
@@ -1432,7 +1432,7 @@
       <c r="A49" t="s">
         <v>37</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="8">
         <v>6.50207512080669E-6</v>
       </c>
       <c r="D49" t="s">
@@ -1449,8 +1449,8 @@
       <c r="A50" t="s">
         <v>36</v>
       </c>
-      <c r="B50">
-        <v>5.0659906864166304E-4</v>
+      <c r="B50" s="8">
+        <v>4.8446384072303798E-4</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -1466,8 +1466,8 @@
       <c r="A51" t="s">
         <v>35</v>
       </c>
-      <c r="B51">
-        <v>1.9147011917084501E-6</v>
+      <c r="B51" s="8">
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1483,8 +1483,8 @@
       <c r="A52" t="s">
         <v>34</v>
       </c>
-      <c r="B52">
-        <v>5.1096692914143201E-7</v>
+      <c r="B52" s="8">
+        <v>4.8856728244572904E-7</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -1500,7 +1500,7 @@
       <c r="A53" t="s">
         <v>31</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C53" t="s">
@@ -1520,7 +1520,7 @@
       <c r="A54" t="s">
         <v>30</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="8">
         <v>5.5908259180316224E-6</v>
       </c>
       <c r="C54" t="s">
@@ -1540,7 +1540,7 @@
       <c r="A55" t="s">
         <v>28</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="8">
         <v>-1.3324041107051689E-6</v>
       </c>
       <c r="C55" t="s">
@@ -1560,8 +1560,8 @@
       <c r="A56" t="s">
         <v>62</v>
       </c>
-      <c r="B56">
-        <v>3.1935434341430702E-2</v>
+      <c r="B56" s="8">
+        <v>3.0535455703735399E-2</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1580,7 +1580,7 @@
       <c r="A57" t="s">
         <v>26</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="8">
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="C57" t="s">
@@ -1600,7 +1600,7 @@
       <c r="A58" t="s">
         <v>24</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="8">
         <v>7.206984306002643E-4</v>
       </c>
       <c r="C58" t="s">
@@ -1620,7 +1620,7 @@
       <c r="A59" t="s">
         <v>24</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="8">
         <v>5.3329267103768179E-4</v>
       </c>
       <c r="C59" t="s">
@@ -1640,7 +1640,7 @@
       <c r="A60" t="s">
         <v>22</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="8">
         <v>0</v>
       </c>
       <c r="C60" t="s">
@@ -1660,7 +1660,7 @@
       <c r="A61" t="s">
         <v>20</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="8">
         <v>4.1931194385237164E-6</v>
       </c>
       <c r="C61" t="s">
@@ -1680,7 +1680,7 @@
       <c r="A62" t="s">
         <v>14</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="8">
         <v>8.0378064431591543E-4</v>
       </c>
       <c r="C62" t="s">
@@ -1700,7 +1700,7 @@
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="8">
         <v>-1.465593782852963E-5</v>
       </c>
       <c r="C63" t="s">
@@ -1720,7 +1720,7 @@
       <c r="A64" t="s">
         <v>9</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="8">
         <v>-8.570818826363946E-5</v>
       </c>
       <c r="C64" t="s">
@@ -1740,7 +1740,7 @@
       <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="8">
         <v>0</v>
       </c>
       <c r="C65" t="s">
@@ -1760,7 +1760,7 @@
       <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="8">
         <v>1.3999999999999999E-4</v>
       </c>
       <c r="C66" t="s">
@@ -1848,7 +1848,7 @@
       <c r="A75" t="s">
         <v>43</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="8">
         <v>1.00000004749745E-6</v>
       </c>
       <c r="D75" t="s">
@@ -1865,7 +1865,7 @@
       <c r="A76" t="s">
         <v>42</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="8">
         <v>1.11254761577584E-7</v>
       </c>
       <c r="D76" t="s">
@@ -1882,8 +1882,8 @@
       <c r="A77" t="s">
         <v>41</v>
       </c>
-      <c r="B77">
-        <v>0.13252946472168001</v>
+      <c r="B77" s="8">
+        <v>0.127741317749023</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
@@ -1899,7 +1899,7 @@
       <c r="A78" t="s">
         <v>40</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="8">
         <v>2.7153024449944499E-5</v>
       </c>
       <c r="D78" t="s">
@@ -1916,7 +1916,7 @@
       <c r="A79" t="s">
         <v>39</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="8">
         <v>4.6745906583964799E-6</v>
       </c>
       <c r="D79" t="s">
@@ -1933,7 +1933,7 @@
       <c r="A80" t="s">
         <v>38</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="8">
         <v>1.5988708764780299E-7</v>
       </c>
       <c r="D80" t="s">
@@ -1950,7 +1950,7 @@
       <c r="A81" t="s">
         <v>37</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="8">
         <v>6.50207512080669E-6</v>
       </c>
       <c r="D81" t="s">
@@ -1967,8 +1967,8 @@
       <c r="A82" t="s">
         <v>36</v>
       </c>
-      <c r="B82">
-        <v>5.0659906864166304E-4</v>
+      <c r="B82" s="8">
+        <v>4.8446384072303798E-4</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -1984,8 +1984,8 @@
       <c r="A83" t="s">
         <v>35</v>
       </c>
-      <c r="B83">
-        <v>1.9147011917084501E-6</v>
+      <c r="B83" s="8">
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -2001,8 +2001,8 @@
       <c r="A84" t="s">
         <v>34</v>
       </c>
-      <c r="B84">
-        <v>6.6701625473797303E-7</v>
+      <c r="B84" s="8">
+        <v>6.4291770104318901E-7</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -2018,7 +2018,7 @@
       <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C85" t="s">
@@ -2038,7 +2038,7 @@
       <c r="A86" t="s">
         <v>30</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="8">
         <v>6.3060362132159233E-6</v>
       </c>
       <c r="C86" t="s">
@@ -2058,7 +2058,7 @@
       <c r="A87" t="s">
         <v>28</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="8">
         <v>-1.485202123056679E-6</v>
       </c>
       <c r="C87" t="s">
@@ -2078,8 +2078,8 @@
       <c r="A88" t="s">
         <v>62</v>
       </c>
-      <c r="B88">
-        <v>4.1688518524169903E-2</v>
+      <c r="B88" s="8">
+        <v>4.0182357788085897E-2</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -2098,7 +2098,7 @@
       <c r="A89" t="s">
         <v>26</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="C89" t="s">
@@ -2118,7 +2118,7 @@
       <c r="A90" t="s">
         <v>24</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="8">
         <v>8.2929241828687879E-4</v>
       </c>
       <c r="C90" t="s">
@@ -2138,7 +2138,7 @@
       <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="8">
         <v>6.079510375722292E-4</v>
       </c>
       <c r="C91" t="s">
@@ -2158,7 +2158,7 @@
       <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="8">
         <v>0</v>
       </c>
       <c r="C92" t="s">
@@ -2178,7 +2178,7 @@
       <c r="A93" t="s">
         <v>20</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="8">
         <v>4.7295271599119429E-6</v>
       </c>
       <c r="C93" t="s">
@@ -2198,7 +2198,7 @@
       <c r="A94" t="s">
         <v>14</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="8">
         <v>8.9595694715926817E-4</v>
       </c>
       <c r="C94" t="s">
@@ -2218,7 +2218,7 @@
       <c r="A95" t="s">
         <v>11</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="8">
         <v>-1.633665777779595E-5</v>
       </c>
       <c r="C95" t="s">
@@ -2238,7 +2238,7 @@
       <c r="A96" t="s">
         <v>9</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="8">
         <v>-9.5537068783981051E-5</v>
       </c>
       <c r="C96" t="s">
@@ -2258,7 +2258,7 @@
       <c r="A97" t="s">
         <v>7</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="8">
         <v>0</v>
       </c>
       <c r="C97" t="s">
@@ -2278,7 +2278,7 @@
       <c r="A98" t="s">
         <v>4</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="8">
         <v>1.3999999999999999E-4</v>
       </c>
       <c r="C98" t="s">
@@ -2366,7 +2366,7 @@
       <c r="A107" t="s">
         <v>43</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="8">
         <v>1.00000004749745E-6</v>
       </c>
       <c r="D107" t="s">
@@ -2383,7 +2383,7 @@
       <c r="A108" t="s">
         <v>42</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="8">
         <v>1.11254761577584E-7</v>
       </c>
       <c r="D108" t="s">
@@ -2400,8 +2400,8 @@
       <c r="A109" t="s">
         <v>41</v>
       </c>
-      <c r="B109">
-        <v>0.101524017333984</v>
+      <c r="B109" s="8">
+        <v>9.7073432922363298E-2</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
@@ -2417,7 +2417,7 @@
       <c r="A110" t="s">
         <v>40</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="8">
         <v>2.7153024449944499E-5</v>
       </c>
       <c r="D110" t="s">
@@ -2434,7 +2434,7 @@
       <c r="A111" t="s">
         <v>39</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="8">
         <v>4.6745906583964799E-6</v>
       </c>
       <c r="D111" t="s">
@@ -2451,7 +2451,7 @@
       <c r="A112" t="s">
         <v>38</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="8">
         <v>1.5988708764780299E-7</v>
       </c>
       <c r="D112" t="s">
@@ -2468,7 +2468,7 @@
       <c r="A113" t="s">
         <v>37</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="8">
         <v>6.50207512080669E-6</v>
       </c>
       <c r="D113" t="s">
@@ -2485,8 +2485,8 @@
       <c r="A114" t="s">
         <v>36</v>
       </c>
-      <c r="B114">
-        <v>5.0659906864166304E-4</v>
+      <c r="B114" s="8">
+        <v>4.8446384072303798E-4</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -2502,8 +2502,8 @@
       <c r="A115" t="s">
         <v>35</v>
       </c>
-      <c r="B115">
-        <v>1.9147011917084501E-6</v>
+      <c r="B115" s="8">
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -2519,8 +2519,8 @@
       <c r="A116" t="s">
         <v>34</v>
       </c>
-      <c r="B116">
-        <v>5.1096692914143201E-7</v>
+      <c r="B116" s="8">
+        <v>4.8856728244572904E-7</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -2536,7 +2536,7 @@
       <c r="A117" t="s">
         <v>31</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="8">
         <v>2.4999999999999999E-7</v>
       </c>
       <c r="C117" t="s">
@@ -2556,7 +2556,7 @@
       <c r="A118" t="s">
         <v>30</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="8">
         <v>4.0850197360134037E-6</v>
       </c>
       <c r="C118" t="s">
@@ -2576,7 +2576,7 @@
       <c r="A119" t="s">
         <v>28</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="8">
         <v>-1.01070265709325E-6</v>
       </c>
       <c r="C119" t="s">
@@ -2596,8 +2596,8 @@
       <c r="A120" t="s">
         <v>62</v>
       </c>
-      <c r="B120">
-        <v>3.1935434341430702E-2</v>
+      <c r="B120" s="8">
+        <v>3.0535455703735399E-2</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -2616,7 +2616,7 @@
       <c r="A121" t="s">
         <v>26</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="8">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="C121" t="s">
@@ -2636,7 +2636,7 @@
       <c r="A122" t="s">
         <v>24</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="8">
         <v>5.8027329375768004E-4</v>
       </c>
       <c r="C122" t="s">
@@ -2656,7 +2656,7 @@
       <c r="A123" t="s">
         <v>24</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="8">
         <v>4.36750389458405E-4</v>
       </c>
       <c r="C123" t="s">
@@ -2676,7 +2676,7 @@
       <c r="A124" t="s">
         <v>22</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="8">
         <v>0</v>
       </c>
       <c r="C124" t="s">
@@ -2696,7 +2696,7 @@
       <c r="A125" t="s">
         <v>20</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="8">
         <v>3.0637648020100528E-6</v>
       </c>
       <c r="C125" t="s">
@@ -2716,7 +2716,7 @@
       <c r="A126" t="s">
         <v>14</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="8">
         <v>6.0971234357740751E-4</v>
       </c>
       <c r="C126" t="s">
@@ -2736,7 +2736,7 @@
       <c r="A127" t="s">
         <v>11</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="8">
         <v>-1.111734434506418E-5</v>
       </c>
       <c r="C127" t="s">
@@ -2756,7 +2756,7 @@
       <c r="A128" t="s">
         <v>9</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="8">
         <v>-6.5014429869075324E-5</v>
       </c>
       <c r="C128" t="s">
@@ -2776,7 +2776,7 @@
       <c r="A129" t="s">
         <v>7</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="8">
         <v>0</v>
       </c>
       <c r="C129" t="s">
@@ -2796,7 +2796,7 @@
       <c r="A130" t="s">
         <v>4</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="8">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="C130" t="s">
@@ -2884,7 +2884,7 @@
       <c r="A139" t="s">
         <v>43</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="8">
         <v>1.00000004749745E-6</v>
       </c>
       <c r="D139" t="s">
@@ -2901,7 +2901,7 @@
       <c r="A140" t="s">
         <v>42</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="8">
         <v>1.11254761577584E-7</v>
       </c>
       <c r="D140" t="s">
@@ -2918,8 +2918,8 @@
       <c r="A141" t="s">
         <v>41</v>
       </c>
-      <c r="B141">
-        <v>0.17307241821289099</v>
+      <c r="B141" s="8">
+        <v>0.166780548095703</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -2935,7 +2935,7 @@
       <c r="A142" t="s">
         <v>40</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="8">
         <v>2.7153024449944499E-5</v>
       </c>
       <c r="D142" t="s">
@@ -2952,7 +2952,7 @@
       <c r="A143" t="s">
         <v>39</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="8">
         <v>4.6745906583964799E-6</v>
       </c>
       <c r="D143" t="s">
@@ -2969,7 +2969,7 @@
       <c r="A144" t="s">
         <v>38</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="8">
         <v>1.5988708764780299E-7</v>
       </c>
       <c r="D144" t="s">
@@ -2986,7 +2986,7 @@
       <c r="A145" t="s">
         <v>37</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="8">
         <v>6.50207512080669E-6</v>
       </c>
       <c r="D145" t="s">
@@ -3003,8 +3003,8 @@
       <c r="A146" t="s">
         <v>36</v>
       </c>
-      <c r="B146">
-        <v>5.0659906864166304E-4</v>
+      <c r="B146" s="8">
+        <v>4.8446384072303798E-4</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -3020,8 +3020,8 @@
       <c r="A147" t="s">
         <v>35</v>
       </c>
-      <c r="B147">
-        <v>1.9147011917084501E-6</v>
+      <c r="B147" s="8">
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -3037,8 +3037,8 @@
       <c r="A148" t="s">
         <v>34</v>
       </c>
-      <c r="B148">
-        <v>8.71067575644702E-7</v>
+      <c r="B148" s="8">
+        <v>8.3940080367028704E-7</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -3054,7 +3054,7 @@
       <c r="A149" t="s">
         <v>31</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C149" t="s">
@@ -3074,7 +3074,7 @@
       <c r="A150" t="s">
         <v>30</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="8">
         <v>6.0964181612181812E-6</v>
       </c>
       <c r="C150" t="s">
@@ -3094,7 +3094,7 @@
       <c r="A151" t="s">
         <v>28</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="8">
         <v>-1.440419180313948E-6</v>
       </c>
       <c r="C151" t="s">
@@ -3114,8 +3114,8 @@
       <c r="A152" t="s">
         <v>62</v>
       </c>
-      <c r="B152">
-        <v>5.4441726684570299E-2</v>
+      <c r="B152" s="8">
+        <v>5.2462551116943403E-2</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -3134,7 +3134,7 @@
       <c r="A153" t="s">
         <v>26</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="8">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="C153" t="s">
@@ -3154,7 +3154,7 @@
       <c r="A154" t="s">
         <v>24</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="8">
         <v>7.8393439612552075E-4</v>
       </c>
       <c r="C154" t="s">
@@ -3174,7 +3174,7 @@
       <c r="A155" t="s">
         <v>24</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="8">
         <v>5.7676739733629554E-4</v>
       </c>
       <c r="C155" t="s">
@@ -3194,7 +3194,7 @@
       <c r="A156" t="s">
         <v>22</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="8">
         <v>0</v>
       </c>
       <c r="C156" t="s">
@@ -3214,7 +3214,7 @@
       <c r="A157" t="s">
         <v>20</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="8">
         <v>4.5723136209136353E-6</v>
       </c>
       <c r="C157" t="s">
@@ -3234,7 +3234,7 @@
       <c r="A158" t="s">
         <v>14</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="8">
         <v>8.6894137261779917E-4</v>
       </c>
       <c r="C158" t="s">
@@ -3254,7 +3254,7 @@
       <c r="A159" t="s">
         <v>11</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="8">
         <v>-1.584406246129794E-5</v>
       </c>
       <c r="C159" t="s">
@@ -3274,7 +3274,7 @@
       <c r="A160" t="s">
         <v>9</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="8">
         <v>-9.2656362505191204E-5</v>
       </c>
       <c r="C160" t="s">
@@ -3294,7 +3294,7 @@
       <c r="A161" t="s">
         <v>7</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="8">
         <v>0</v>
       </c>
       <c r="C161" t="s">
@@ -3314,7 +3314,7 @@
       <c r="A162" t="s">
         <v>4</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="8">
         <v>1.65E-4</v>
       </c>
       <c r="C162" t="s">
@@ -3402,7 +3402,7 @@
       <c r="A171" t="s">
         <v>43</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="8">
         <v>1.00000004749745E-6</v>
       </c>
       <c r="D171" t="s">
@@ -3419,7 +3419,7 @@
       <c r="A172" t="s">
         <v>42</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="8">
         <v>1.11254761577584E-7</v>
       </c>
       <c r="D172" t="s">
@@ -3436,8 +3436,8 @@
       <c r="A173" t="s">
         <v>41</v>
       </c>
-      <c r="B173">
-        <v>0.101524017333984</v>
+      <c r="B173" s="8">
+        <v>9.7073432922363298E-2</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
@@ -3453,7 +3453,7 @@
       <c r="A174" t="s">
         <v>40</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="8">
         <v>2.7153024449944499E-5</v>
       </c>
       <c r="D174" t="s">
@@ -3470,7 +3470,7 @@
       <c r="A175" t="s">
         <v>39</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="8">
         <v>4.6745906583964799E-6</v>
       </c>
       <c r="D175" t="s">
@@ -3487,7 +3487,7 @@
       <c r="A176" t="s">
         <v>38</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="8">
         <v>1.5988708764780299E-7</v>
       </c>
       <c r="D176" t="s">
@@ -3504,7 +3504,7 @@
       <c r="A177" t="s">
         <v>37</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="8">
         <v>6.50207512080669E-6</v>
       </c>
       <c r="D177" t="s">
@@ -3521,8 +3521,8 @@
       <c r="A178" t="s">
         <v>36</v>
       </c>
-      <c r="B178">
-        <v>5.0659906864166304E-4</v>
+      <c r="B178" s="8">
+        <v>4.8446384072303798E-4</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
@@ -3538,8 +3538,8 @@
       <c r="A179" t="s">
         <v>35</v>
       </c>
-      <c r="B179">
-        <v>1.9147011917084501E-6</v>
+      <c r="B179" s="8">
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
@@ -3555,8 +3555,8 @@
       <c r="A180" t="s">
         <v>34</v>
       </c>
-      <c r="B180">
-        <v>5.1096692914143201E-7</v>
+      <c r="B180" s="8">
+        <v>4.8856728244572904E-7</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
@@ -3572,7 +3572,7 @@
       <c r="A181" t="s">
         <v>31</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C181" t="s">
@@ -3592,7 +3592,7 @@
       <c r="A182" t="s">
         <v>30</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="8">
         <v>4.6359685213950348E-6</v>
       </c>
       <c r="C182" t="s">
@@ -3612,7 +3612,7 @@
       <c r="A183" t="s">
         <v>28</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="8">
         <v>-1.128407729126782E-6</v>
       </c>
       <c r="C183" t="s">
@@ -3632,8 +3632,8 @@
       <c r="A184" t="s">
         <v>62</v>
       </c>
-      <c r="B184">
-        <v>3.1935434341430702E-2</v>
+      <c r="B184" s="8">
+        <v>3.0535455703735399E-2</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -3652,7 +3652,7 @@
       <c r="A185" t="s">
         <v>26</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="8">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="C185" t="s">
@@ -3672,7 +3672,7 @@
       <c r="A186" t="s">
         <v>24</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="8">
         <v>6.342813189179502E-4</v>
       </c>
       <c r="C186" t="s">
@@ -3692,7 +3692,7 @@
       <c r="A187" t="s">
         <v>24</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="8">
         <v>4.7388090675609082E-4</v>
       </c>
       <c r="C187" t="s">
@@ -3712,7 +3712,7 @@
       <c r="A188" t="s">
         <v>22</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="8">
         <v>0</v>
       </c>
       <c r="C188" t="s">
@@ -3732,7 +3732,7 @@
       <c r="A189" t="s">
         <v>20</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="8">
         <v>3.4769763910462759E-6</v>
       </c>
       <c r="C189" t="s">
@@ -3752,7 +3752,7 @@
       <c r="A190" t="s">
         <v>14</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="8">
         <v>6.8071862303739205E-4</v>
       </c>
       <c r="C190" t="s">
@@ -3772,7 +3772,7 @@
       <c r="A191" t="s">
         <v>11</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="8">
         <v>-1.241205531448099E-5</v>
       </c>
       <c r="C191" t="s">
@@ -3792,7 +3792,7 @@
       <c r="A192" t="s">
         <v>9</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="8">
         <v>-7.2585922926159932E-5</v>
       </c>
       <c r="C192" t="s">
@@ -3812,7 +3812,7 @@
       <c r="A193" t="s">
         <v>7</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="8">
         <v>0</v>
       </c>
       <c r="C193" t="s">
@@ -3832,7 +3832,7 @@
       <c r="A194" t="s">
         <v>4</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="8">
         <v>9.0000000000000006E-5</v>
       </c>
       <c r="C194" t="s">
@@ -3920,7 +3920,7 @@
       <c r="A203" t="s">
         <v>43</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="8">
         <v>1.00000004749745E-6</v>
       </c>
       <c r="D203" t="s">
@@ -3937,7 +3937,7 @@
       <c r="A204" t="s">
         <v>42</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="8">
         <v>1.11254761577584E-7</v>
       </c>
       <c r="D204" t="s">
@@ -3954,8 +3954,8 @@
       <c r="A205" t="s">
         <v>41</v>
       </c>
-      <c r="B205">
-        <v>0.13252946472168001</v>
+      <c r="B205" s="8">
+        <v>0.127741317749023</v>
       </c>
       <c r="D205" t="s">
         <v>2</v>
@@ -3971,7 +3971,7 @@
       <c r="A206" t="s">
         <v>40</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="8">
         <v>2.7153024449944499E-5</v>
       </c>
       <c r="D206" t="s">
@@ -3988,7 +3988,7 @@
       <c r="A207" t="s">
         <v>39</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="8">
         <v>4.6745906583964799E-6</v>
       </c>
       <c r="D207" t="s">
@@ -4005,7 +4005,7 @@
       <c r="A208" t="s">
         <v>38</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="8">
         <v>1.5988708764780299E-7</v>
       </c>
       <c r="D208" t="s">
@@ -4022,7 +4022,7 @@
       <c r="A209" t="s">
         <v>37</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="8">
         <v>6.50207512080669E-6</v>
       </c>
       <c r="D209" t="s">
@@ -4039,8 +4039,8 @@
       <c r="A210" t="s">
         <v>36</v>
       </c>
-      <c r="B210">
-        <v>5.0659906864166304E-4</v>
+      <c r="B210" s="8">
+        <v>4.8446384072303798E-4</v>
       </c>
       <c r="D210" t="s">
         <v>2</v>
@@ -4056,8 +4056,8 @@
       <c r="A211" t="s">
         <v>35</v>
       </c>
-      <c r="B211">
-        <v>1.9147011917084501E-6</v>
+      <c r="B211" s="8">
+        <v>1.9140829099342199E-6</v>
       </c>
       <c r="D211" t="s">
         <v>2</v>
@@ -4073,8 +4073,8 @@
       <c r="A212" t="s">
         <v>34</v>
       </c>
-      <c r="B212">
-        <v>6.6701625473797303E-7</v>
+      <c r="B212" s="8">
+        <v>6.4291770104318901E-7</v>
       </c>
       <c r="D212" t="s">
         <v>2</v>
@@ -4090,7 +4090,7 @@
       <c r="A213" t="s">
         <v>31</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C213" t="s">
@@ -4110,7 +4110,7 @@
       <c r="A214" t="s">
         <v>30</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="8">
         <v>6.4172776560793981E-6</v>
       </c>
       <c r="C214" t="s">
@@ -4130,7 +4130,7 @@
       <c r="A215" t="s">
         <v>28</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="8">
         <v>-1.5089678203279589E-6</v>
       </c>
       <c r="C215" t="s">
@@ -4150,8 +4150,8 @@
       <c r="A216" t="s">
         <v>62</v>
       </c>
-      <c r="B216">
-        <v>4.1688518524169903E-2</v>
+      <c r="B216" s="8">
+        <v>4.0182357788085897E-2</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -4170,7 +4170,7 @@
       <c r="A217" t="s">
         <v>26</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="8">
         <v>6.7499999999999999E-3</v>
       </c>
       <c r="C217" t="s">
@@ -4190,7 +4190,7 @@
       <c r="A218" t="s">
         <v>24</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="8">
         <v>7.4543448136016376E-4</v>
       </c>
       <c r="C218" t="s">
@@ -4210,7 +4210,7 @@
       <c r="A219" t="s">
         <v>24</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="8">
         <v>5.5029870593511262E-4</v>
       </c>
       <c r="C219" t="s">
@@ -4230,7 +4230,7 @@
       <c r="A220" t="s">
         <v>22</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="8">
         <v>0</v>
       </c>
       <c r="C220" t="s">
@@ -4250,7 +4250,7 @@
       <c r="A221" t="s">
         <v>20</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="8">
         <v>4.8129582420595484E-6</v>
       </c>
       <c r="C221" t="s">
@@ -4270,7 +4270,7 @@
       <c r="A222" t="s">
         <v>14</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="8">
         <v>9.1029374431551282E-4</v>
       </c>
       <c r="C222" t="s">
@@ -4290,7 +4290,7 @@
       <c r="A223" t="s">
         <v>11</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="8">
         <v>-1.6598071397628752E-5</v>
       </c>
       <c r="C223" t="s">
@@ -4310,7 +4310,7 @@
       <c r="A224" t="s">
         <v>9</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="8">
         <v>-9.706582033884192E-5</v>
       </c>
       <c r="C224" t="s">
@@ -4330,7 +4330,7 @@
       <c r="A225" t="s">
         <v>7</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="8">
         <v>0</v>
       </c>
       <c r="C225" t="s">
@@ -4350,7 +4350,7 @@
       <c r="A226" t="s">
         <v>4</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="8">
         <v>1.65E-4</v>
       </c>
       <c r="C226" t="s">
@@ -4438,8 +4438,8 @@
       <c r="A235" t="s">
         <v>43</v>
       </c>
-      <c r="B235">
-        <v>4.0331047028303097E-5</v>
+      <c r="B235" s="8">
+        <v>4.0241569280624387E-5</v>
       </c>
       <c r="D235" t="s">
         <v>2</v>
@@ -4455,8 +4455,8 @@
       <c r="A236" t="s">
         <v>42</v>
       </c>
-      <c r="B236">
-        <v>1.1365159880369899E-6</v>
+      <c r="B236" s="8">
+        <v>1.13473599776626E-6</v>
       </c>
       <c r="D236" t="s">
         <v>2</v>
@@ -4472,8 +4472,8 @@
       <c r="A237" t="s">
         <v>41</v>
       </c>
-      <c r="B237">
-        <v>0.23641638183593799</v>
+      <c r="B237" s="8">
+        <v>0.23101791381835901</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -4489,8 +4489,8 @@
       <c r="A238" t="s">
         <v>40</v>
       </c>
-      <c r="B238">
-        <v>6.41925394535065E-4</v>
+      <c r="B238" s="8">
+        <v>6.3666582107543899E-4</v>
       </c>
       <c r="D238" t="s">
         <v>2</v>
@@ -4506,8 +4506,8 @@
       <c r="A239" t="s">
         <v>39</v>
       </c>
-      <c r="B239">
-        <v>4.3919458403252099E-7</v>
+      <c r="B239" s="8">
+        <v>4.1431200224906201E-7</v>
       </c>
       <c r="D239" t="s">
         <v>2</v>
@@ -4523,8 +4523,8 @@
       <c r="A240" t="s">
         <v>38</v>
       </c>
-      <c r="B240">
-        <v>7.3833984788507204E-7</v>
+      <c r="B240" s="8">
+        <v>7.3718349449336499E-7</v>
       </c>
       <c r="D240" t="s">
         <v>2</v>
@@ -4540,8 +4540,8 @@
       <c r="A241" t="s">
         <v>37</v>
       </c>
-      <c r="B241">
-        <v>8.051420561969281E-6</v>
+      <c r="B241" s="8">
+        <v>8.03881045430899E-6</v>
       </c>
       <c r="D241" t="s">
         <v>2</v>
@@ -4557,7 +4557,7 @@
       <c r="A242" t="s">
         <v>36</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="8">
         <v>1.9810941070318201E-5</v>
       </c>
       <c r="D242" t="s">
@@ -4574,7 +4574,7 @@
       <c r="A243" t="s">
         <v>35</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="8">
         <v>2.0715177524834898E-6</v>
       </c>
       <c r="D243" t="s">
@@ -4591,8 +4591,8 @@
       <c r="A244" t="s">
         <v>34</v>
       </c>
-      <c r="B244">
-        <v>1.13493029493839E-6</v>
+      <c r="B244" s="8">
+        <v>1.04992149863392E-6</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -4608,7 +4608,7 @@
       <c r="A245" t="s">
         <v>31</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C245" t="s">
@@ -4628,7 +4628,7 @@
       <c r="A246" t="s">
         <v>30</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="8">
         <v>7.0701270270833338E-6</v>
       </c>
       <c r="C246" t="s">
@@ -4648,7 +4648,7 @@
       <c r="A247" t="s">
         <v>28</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="8">
         <v>-1.648443002558983E-6</v>
       </c>
       <c r="C247" t="s">
@@ -4668,7 +4668,7 @@
       <c r="A248" t="s">
         <v>26</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="8">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C248" t="s">
@@ -4688,7 +4688,7 @@
       <c r="A249" t="s">
         <v>24</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="8">
         <v>7.7510536220000003E-4</v>
       </c>
       <c r="C249" t="s">
@@ -4708,7 +4708,7 @@
       <c r="A250" t="s">
         <v>24</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="8">
         <v>6.4829707030000013E-4</v>
       </c>
       <c r="C250" t="s">
@@ -4728,7 +4728,7 @@
       <c r="A251" t="s">
         <v>22</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="8">
         <v>0</v>
       </c>
       <c r="C251" t="s">
@@ -4748,7 +4748,7 @@
       <c r="A252" t="s">
         <v>20</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="8">
         <v>5.3025952703124999E-6</v>
       </c>
       <c r="C252" t="s">
@@ -4768,8 +4768,8 @@
       <c r="A253" t="s">
         <v>17</v>
       </c>
-      <c r="B253">
-        <v>7.5409614562988295E-2</v>
+      <c r="B253" s="8">
+        <v>7.3687667846679697E-2</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
@@ -4788,7 +4788,7 @@
       <c r="A254" t="s">
         <v>14</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="8">
         <v>9.9443297125050012E-4</v>
       </c>
       <c r="C254" t="s">
@@ -4808,7 +4808,7 @@
       <c r="A255" t="s">
         <v>11</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="8">
         <v>-1.8132245289000851E-5</v>
       </c>
       <c r="C255" t="s">
@@ -4828,7 +4828,7 @@
       <c r="A256" t="s">
         <v>9</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="8">
         <v>-1.0603769687443391E-4</v>
       </c>
       <c r="C256" t="s">
@@ -4848,7 +4848,7 @@
       <c r="A257" t="s">
         <v>7</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="8">
         <v>0</v>
       </c>
       <c r="C257" t="s">
@@ -4868,7 +4868,7 @@
       <c r="A258" t="s">
         <v>4</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="8">
         <v>1.4574999999999999E-4</v>
       </c>
       <c r="C258" t="s">
@@ -4956,8 +4956,8 @@
       <c r="A267" t="s">
         <v>43</v>
       </c>
-      <c r="B267">
-        <v>4.0331047028303097E-5</v>
+      <c r="B267" s="8">
+        <v>4.0241569280624387E-5</v>
       </c>
       <c r="D267" t="s">
         <v>2</v>
@@ -4973,8 +4973,8 @@
       <c r="A268" t="s">
         <v>42</v>
       </c>
-      <c r="B268">
-        <v>1.1365159880369899E-6</v>
+      <c r="B268" s="8">
+        <v>1.13473599776626E-6</v>
       </c>
       <c r="D268" t="s">
         <v>2</v>
@@ -4990,8 +4990,8 @@
       <c r="A269" t="s">
         <v>41</v>
       </c>
-      <c r="B269">
-        <v>0.13685466003418001</v>
+      <c r="B269" s="8">
+        <v>0.13216171264648399</v>
       </c>
       <c r="D269" t="s">
         <v>2</v>
@@ -5007,8 +5007,8 @@
       <c r="A270" t="s">
         <v>40</v>
       </c>
-      <c r="B270">
-        <v>6.41925394535065E-4</v>
+      <c r="B270" s="8">
+        <v>6.3666582107543899E-4</v>
       </c>
       <c r="D270" t="s">
         <v>2</v>
@@ -5024,8 +5024,8 @@
       <c r="A271" t="s">
         <v>39</v>
       </c>
-      <c r="B271">
-        <v>4.3919458403252099E-7</v>
+      <c r="B271" s="8">
+        <v>4.1431200224906201E-7</v>
       </c>
       <c r="D271" t="s">
         <v>2</v>
@@ -5041,8 +5041,8 @@
       <c r="A272" t="s">
         <v>38</v>
       </c>
-      <c r="B272">
-        <v>7.3833984788507204E-7</v>
+      <c r="B272" s="8">
+        <v>7.3718349449336499E-7</v>
       </c>
       <c r="D272" t="s">
         <v>2</v>
@@ -5058,8 +5058,8 @@
       <c r="A273" t="s">
         <v>37</v>
       </c>
-      <c r="B273">
-        <v>8.051420561969281E-6</v>
+      <c r="B273" s="8">
+        <v>8.03881045430899E-6</v>
       </c>
       <c r="D273" t="s">
         <v>2</v>
@@ -5075,7 +5075,7 @@
       <c r="A274" t="s">
         <v>36</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="8">
         <v>1.9810941070318201E-5</v>
       </c>
       <c r="D274" t="s">
@@ -5092,7 +5092,7 @@
       <c r="A275" t="s">
         <v>35</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="8">
         <v>2.0715177524834898E-6</v>
       </c>
       <c r="D275" t="s">
@@ -5109,8 +5109,8 @@
       <c r="A276" t="s">
         <v>34</v>
       </c>
-      <c r="B276">
-        <v>6.5697851823642905E-7</v>
+      <c r="B276" s="8">
+        <v>6.0064357239752992E-7</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -5126,7 +5126,7 @@
       <c r="A277" t="s">
         <v>31</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C277" t="s">
@@ -5146,7 +5146,7 @@
       <c r="A278" t="s">
         <v>30</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="8">
         <v>5.4919281064768473E-6</v>
       </c>
       <c r="C278" t="s">
@@ -5166,7 +5166,7 @@
       <c r="A279" t="s">
         <v>28</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="8">
         <v>-1.3112755151952431E-6</v>
       </c>
       <c r="C279" t="s">
@@ -5186,7 +5186,7 @@
       <c r="A280" t="s">
         <v>26</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="8">
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="C280" t="s">
@@ -5206,7 +5206,7 @@
       <c r="A281" t="s">
         <v>24</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="8">
         <v>6.2292235421910808E-4</v>
       </c>
       <c r="C281" t="s">
@@ -5226,7 +5226,7 @@
       <c r="A282" t="s">
         <v>24</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="8">
         <v>5.2872470688644202E-4</v>
       </c>
       <c r="C282" t="s">
@@ -5246,7 +5246,7 @@
       <c r="A283" t="s">
         <v>22</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="8">
         <v>0</v>
       </c>
       <c r="C283" t="s">
@@ -5266,7 +5266,7 @@
       <c r="A284" t="s">
         <v>20</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="8">
         <v>4.1189460798576357E-6</v>
       </c>
       <c r="C284" t="s">
@@ -5286,8 +5286,8 @@
       <c r="A285" t="s">
         <v>17</v>
       </c>
-      <c r="B285">
-        <v>4.3652462005615199E-2</v>
+      <c r="B285" s="8">
+        <v>4.21555519104004E-2</v>
       </c>
       <c r="C285" t="s">
         <v>16</v>
@@ -5306,7 +5306,7 @@
       <c r="A286" t="s">
         <v>14</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="8">
         <v>7.9103469436273607E-4</v>
       </c>
       <c r="C286" t="s">
@@ -5326,7 +5326,7 @@
       <c r="A287" t="s">
         <v>11</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="8">
         <v>-1.4423531323844101E-5</v>
       </c>
       <c r="C287" t="s">
@@ -5346,7 +5346,7 @@
       <c r="A288" t="s">
         <v>9</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="8">
         <v>-8.4349070840358158E-5</v>
       </c>
       <c r="C288" t="s">
@@ -5366,7 +5366,7 @@
       <c r="A289" t="s">
         <v>7</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="8">
         <v>0</v>
       </c>
       <c r="C289" t="s">
@@ -5386,7 +5386,7 @@
       <c r="A290" t="s">
         <v>4</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="8">
         <v>1.2366666666666659E-4</v>
       </c>
       <c r="C290" t="s">
@@ -5474,8 +5474,8 @@
       <c r="A299" t="s">
         <v>43</v>
       </c>
-      <c r="B299">
-        <v>4.0331047028303097E-5</v>
+      <c r="B299" s="8">
+        <v>4.0241569280624387E-5</v>
       </c>
       <c r="D299" t="s">
         <v>2</v>
@@ -5491,8 +5491,8 @@
       <c r="A300" t="s">
         <v>42</v>
       </c>
-      <c r="B300">
-        <v>1.1365159880369899E-6</v>
+      <c r="B300" s="8">
+        <v>1.13473599776626E-6</v>
       </c>
       <c r="D300" t="s">
         <v>2</v>
@@ -5508,8 +5508,8 @@
       <c r="A301" t="s">
         <v>41</v>
       </c>
-      <c r="B301">
-        <v>0.163317047119141</v>
+      <c r="B301" s="8">
+        <v>0.15974993896484399</v>
       </c>
       <c r="D301" t="s">
         <v>2</v>
@@ -5525,8 +5525,8 @@
       <c r="A302" t="s">
         <v>40</v>
       </c>
-      <c r="B302">
-        <v>6.41925394535065E-4</v>
+      <c r="B302" s="8">
+        <v>6.3666582107543899E-4</v>
       </c>
       <c r="D302" t="s">
         <v>2</v>
@@ -5542,8 +5542,8 @@
       <c r="A303" t="s">
         <v>39</v>
       </c>
-      <c r="B303">
-        <v>4.3919458403252099E-7</v>
+      <c r="B303" s="8">
+        <v>4.1431200224906201E-7</v>
       </c>
       <c r="D303" t="s">
         <v>2</v>
@@ -5559,8 +5559,8 @@
       <c r="A304" t="s">
         <v>38</v>
       </c>
-      <c r="B304">
-        <v>7.3833984788507204E-7</v>
+      <c r="B304" s="8">
+        <v>7.3718349449336499E-7</v>
       </c>
       <c r="D304" t="s">
         <v>2</v>
@@ -5576,8 +5576,8 @@
       <c r="A305" t="s">
         <v>37</v>
       </c>
-      <c r="B305">
-        <v>8.051420561969281E-6</v>
+      <c r="B305" s="8">
+        <v>8.03881045430899E-6</v>
       </c>
       <c r="D305" t="s">
         <v>2</v>
@@ -5593,7 +5593,7 @@
       <c r="A306" t="s">
         <v>36</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="8">
         <v>1.9810941070318201E-5</v>
       </c>
       <c r="D306" t="s">
@@ -5610,7 +5610,7 @@
       <c r="A307" t="s">
         <v>35</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="8">
         <v>2.0715177524834898E-6</v>
       </c>
       <c r="D307" t="s">
@@ -5627,8 +5627,8 @@
       <c r="A308" t="s">
         <v>34</v>
       </c>
-      <c r="B308">
-        <v>7.8401272185146803E-7</v>
+      <c r="B308" s="8">
+        <v>7.2602549334987994E-7</v>
       </c>
       <c r="D308" t="s">
         <v>2</v>
@@ -5644,7 +5644,7 @@
       <c r="A309" t="s">
         <v>31</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C309" t="s">
@@ -5664,7 +5664,7 @@
       <c r="A310" t="s">
         <v>30</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="8">
         <v>6.193198891666668E-6</v>
       </c>
       <c r="C310" t="s">
@@ -5684,7 +5684,7 @@
       <c r="A311" t="s">
         <v>28</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="8">
         <v>-1.461095481181017E-6</v>
       </c>
       <c r="C311" t="s">
@@ -5704,7 +5704,7 @@
       <c r="A312" t="s">
         <v>26</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="C312" t="s">
@@ -5724,7 +5724,7 @@
       <c r="A313" t="s">
         <v>24</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="8">
         <v>7.1617632186666657E-4</v>
       </c>
       <c r="C313" t="s">
@@ -5744,7 +5744,7 @@
       <c r="A314" t="s">
         <v>24</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="8">
         <v>6.0199568146666665E-4</v>
       </c>
       <c r="C314" t="s">
@@ -5764,7 +5764,7 @@
       <c r="A315" t="s">
         <v>22</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="8">
         <v>0</v>
       </c>
       <c r="C315" t="s">
@@ -5784,7 +5784,7 @@
       <c r="A316" t="s">
         <v>20</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="8">
         <v>4.6448991687500008E-6</v>
       </c>
       <c r="C316" t="s">
@@ -5804,8 +5804,8 @@
       <c r="A317" t="s">
         <v>17</v>
       </c>
-      <c r="B317">
-        <v>5.2093154907226602E-2</v>
+      <c r="B317" s="8">
+        <v>5.0955352783203102E-2</v>
       </c>
       <c r="C317" t="s">
         <v>16</v>
@@ -5824,7 +5824,7 @@
       <c r="A318" t="s">
         <v>14</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="8">
         <v>8.8141447315800005E-4</v>
       </c>
       <c r="C318" t="s">
@@ -5844,7 +5844,7 @@
       <c r="A319" t="s">
         <v>11</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="8">
         <v>-1.607149389714915E-5</v>
       </c>
       <c r="C319" t="s">
@@ -5864,7 +5864,7 @@
       <c r="A320" t="s">
         <v>9</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="8">
         <v>-9.3986385636366106E-5</v>
       </c>
       <c r="C320" t="s">
@@ -5884,7 +5884,7 @@
       <c r="A321" t="s">
         <v>7</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="8">
         <v>0</v>
       </c>
       <c r="C321" t="s">
@@ -5904,7 +5904,7 @@
       <c r="A322" t="s">
         <v>4</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="8">
         <v>1.2366666666666659E-4</v>
       </c>
       <c r="C322" t="s">
@@ -5992,8 +5992,8 @@
       <c r="A331" t="s">
         <v>43</v>
       </c>
-      <c r="B331">
-        <v>4.0331047028303097E-5</v>
+      <c r="B331" s="8">
+        <v>4.0241569280624387E-5</v>
       </c>
       <c r="D331" t="s">
         <v>2</v>
@@ -6009,8 +6009,8 @@
       <c r="A332" t="s">
         <v>42</v>
       </c>
-      <c r="B332">
-        <v>1.1365159880369899E-6</v>
+      <c r="B332" s="8">
+        <v>1.13473599776626E-6</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -6026,8 +6026,8 @@
       <c r="A333" t="s">
         <v>41</v>
       </c>
-      <c r="B333">
-        <v>0.13685466003418001</v>
+      <c r="B333" s="8">
+        <v>0.13216171264648399</v>
       </c>
       <c r="D333" t="s">
         <v>2</v>
@@ -6043,8 +6043,8 @@
       <c r="A334" t="s">
         <v>40</v>
       </c>
-      <c r="B334">
-        <v>6.41925394535065E-4</v>
+      <c r="B334" s="8">
+        <v>6.3666582107543899E-4</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
@@ -6060,8 +6060,8 @@
       <c r="A335" t="s">
         <v>39</v>
       </c>
-      <c r="B335">
-        <v>4.3919458403252099E-7</v>
+      <c r="B335" s="8">
+        <v>4.1431200224906201E-7</v>
       </c>
       <c r="D335" t="s">
         <v>2</v>
@@ -6077,8 +6077,8 @@
       <c r="A336" t="s">
         <v>38</v>
       </c>
-      <c r="B336">
-        <v>7.3833984788507204E-7</v>
+      <c r="B336" s="8">
+        <v>7.3718349449336499E-7</v>
       </c>
       <c r="D336" t="s">
         <v>2</v>
@@ -6094,8 +6094,8 @@
       <c r="A337" t="s">
         <v>37</v>
       </c>
-      <c r="B337">
-        <v>8.051420561969281E-6</v>
+      <c r="B337" s="8">
+        <v>8.03881045430899E-6</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -6111,7 +6111,7 @@
       <c r="A338" t="s">
         <v>36</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="8">
         <v>1.9810941070318201E-5</v>
       </c>
       <c r="D338" t="s">
@@ -6128,7 +6128,7 @@
       <c r="A339" t="s">
         <v>35</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="8">
         <v>2.0715177524834898E-6</v>
       </c>
       <c r="D339" t="s">
@@ -6145,8 +6145,8 @@
       <c r="A340" t="s">
         <v>34</v>
       </c>
-      <c r="B340">
-        <v>6.5697851823642905E-7</v>
+      <c r="B340" s="8">
+        <v>6.0064357239752992E-7</v>
       </c>
       <c r="D340" t="s">
         <v>2</v>
@@ -6162,7 +6162,7 @@
       <c r="A341" t="s">
         <v>31</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="8">
         <v>2.4999999999999999E-7</v>
       </c>
       <c r="C341" t="s">
@@ -6182,7 +6182,7 @@
       <c r="A342" t="s">
         <v>30</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="8">
         <v>4.0085338849283857E-6</v>
       </c>
       <c r="C342" t="s">
@@ -6202,7 +6202,7 @@
       <c r="A343" t="s">
         <v>28</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="8">
         <v>-9.9436216801263259E-7</v>
       </c>
       <c r="C343" t="s">
@@ -6222,7 +6222,7 @@
       <c r="A344" t="s">
         <v>26</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="8">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="C344" t="s">
@@ -6242,7 +6242,7 @@
       <c r="A345" t="s">
         <v>24</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="8">
         <v>5.0201477067187501E-4</v>
       </c>
       <c r="C345" t="s">
@@ -6262,7 +6262,7 @@
       <c r="A346" t="s">
         <v>24</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="8">
         <v>4.3372589124218751E-4</v>
       </c>
       <c r="C346" t="s">
@@ -6282,7 +6282,7 @@
       <c r="A347" t="s">
         <v>22</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="8">
         <v>0</v>
       </c>
       <c r="C347" t="s">
@@ -6302,7 +6302,7 @@
       <c r="A348" t="s">
         <v>20</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="8">
         <v>3.0064004136962889E-6</v>
       </c>
       <c r="C348" t="s">
@@ -6322,8 +6322,8 @@
       <c r="A349" t="s">
         <v>17</v>
       </c>
-      <c r="B349">
-        <v>4.3652462005615199E-2</v>
+      <c r="B349" s="8">
+        <v>4.21555519104004E-2</v>
       </c>
       <c r="C349" t="s">
         <v>16</v>
@@ -6342,7 +6342,7 @@
       <c r="A350" t="s">
         <v>14</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="8">
         <v>5.998548470895704E-4</v>
       </c>
       <c r="C350" t="s">
@@ -6362,7 +6362,7 @@
       <c r="A351" t="s">
         <v>11</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="8">
         <v>-1.0937605187755101E-5</v>
       </c>
       <c r="C351" t="s">
@@ -6382,7 +6382,7 @@
       <c r="A352" t="s">
         <v>9</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="8">
         <v>-6.3963312041391421E-5</v>
       </c>
       <c r="C352" t="s">
@@ -6402,7 +6402,7 @@
       <c r="A353" t="s">
         <v>7</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="8">
         <v>0</v>
       </c>
       <c r="C353" t="s">
@@ -6422,7 +6422,7 @@
       <c r="A354" t="s">
         <v>4</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="8">
         <v>7.9499999999999981E-5</v>
       </c>
       <c r="C354" t="s">
@@ -6510,8 +6510,8 @@
       <c r="A363" t="s">
         <v>43</v>
       </c>
-      <c r="B363">
-        <v>4.0331047028303097E-5</v>
+      <c r="B363" s="8">
+        <v>4.0241569280624387E-5</v>
       </c>
       <c r="D363" t="s">
         <v>2</v>
@@ -6527,8 +6527,8 @@
       <c r="A364" t="s">
         <v>42</v>
       </c>
-      <c r="B364">
-        <v>1.1365159880369899E-6</v>
+      <c r="B364" s="8">
+        <v>1.13473599776626E-6</v>
       </c>
       <c r="D364" t="s">
         <v>2</v>
@@ -6544,8 +6544,8 @@
       <c r="A365" t="s">
         <v>41</v>
       </c>
-      <c r="B365">
-        <v>0.23641638183593799</v>
+      <c r="B365" s="8">
+        <v>0.23101791381835901</v>
       </c>
       <c r="D365" t="s">
         <v>2</v>
@@ -6561,8 +6561,8 @@
       <c r="A366" t="s">
         <v>40</v>
       </c>
-      <c r="B366">
-        <v>6.41925394535065E-4</v>
+      <c r="B366" s="8">
+        <v>6.3666582107543899E-4</v>
       </c>
       <c r="D366" t="s">
         <v>2</v>
@@ -6578,8 +6578,8 @@
       <c r="A367" t="s">
         <v>39</v>
       </c>
-      <c r="B367">
-        <v>4.3919458403252099E-7</v>
+      <c r="B367" s="8">
+        <v>4.1431200224906201E-7</v>
       </c>
       <c r="D367" t="s">
         <v>2</v>
@@ -6595,8 +6595,8 @@
       <c r="A368" t="s">
         <v>38</v>
       </c>
-      <c r="B368">
-        <v>7.3833984788507204E-7</v>
+      <c r="B368" s="8">
+        <v>7.3718349449336499E-7</v>
       </c>
       <c r="D368" t="s">
         <v>2</v>
@@ -6612,8 +6612,8 @@
       <c r="A369" t="s">
         <v>37</v>
       </c>
-      <c r="B369">
-        <v>8.051420561969281E-6</v>
+      <c r="B369" s="8">
+        <v>8.03881045430899E-6</v>
       </c>
       <c r="D369" t="s">
         <v>2</v>
@@ -6629,7 +6629,7 @@
       <c r="A370" t="s">
         <v>36</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="8">
         <v>1.9810941070318201E-5</v>
       </c>
       <c r="D370" t="s">
@@ -6646,7 +6646,7 @@
       <c r="A371" t="s">
         <v>35</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="8">
         <v>2.0715177524834898E-6</v>
       </c>
       <c r="D371" t="s">
@@ -6663,8 +6663,8 @@
       <c r="A372" t="s">
         <v>34</v>
       </c>
-      <c r="B372">
-        <v>1.13493029493839E-6</v>
+      <c r="B372" s="8">
+        <v>1.04992149863392E-6</v>
       </c>
       <c r="D372" t="s">
         <v>2</v>
@@ -6680,7 +6680,7 @@
       <c r="A373" t="s">
         <v>31</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C373" t="s">
@@ -6700,7 +6700,7 @@
       <c r="A374" t="s">
         <v>30</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="8">
         <v>5.9868890169076621E-6</v>
       </c>
       <c r="C374" t="s">
@@ -6720,7 +6720,7 @@
       <c r="A375" t="s">
         <v>28</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="8">
         <v>-1.4170192996664021E-6</v>
       </c>
       <c r="C375" t="s">
@@ -6740,7 +6740,7 @@
       <c r="A376" t="s">
         <v>26</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="8">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="C376" t="s">
@@ -6760,7 +6760,7 @@
       <c r="A377" t="s">
         <v>24</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="8">
         <v>6.7716941936194896E-4</v>
       </c>
       <c r="C377" t="s">
@@ -6780,7 +6780,7 @@
       <c r="A378" t="s">
         <v>24</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="8">
         <v>5.7134740092724566E-4</v>
       </c>
       <c r="C378" t="s">
@@ -6800,7 +6800,7 @@
       <c r="A379" t="s">
         <v>22</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="8">
         <v>0</v>
       </c>
       <c r="C379" t="s">
@@ -6820,7 +6820,7 @@
       <c r="A380" t="s">
         <v>20</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="8">
         <v>4.490166762680747E-6</v>
       </c>
       <c r="C380" t="s">
@@ -6840,8 +6840,8 @@
       <c r="A381" t="s">
         <v>17</v>
       </c>
-      <c r="B381">
-        <v>7.5409614562988295E-2</v>
+      <c r="B381" s="8">
+        <v>7.3687667846679697E-2</v>
       </c>
       <c r="C381" t="s">
         <v>16</v>
@@ -6860,7 +6860,7 @@
       <c r="A382" t="s">
         <v>14</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="8">
         <v>8.5482525649905954E-4</v>
       </c>
       <c r="C382" t="s">
@@ -6880,7 +6880,7 @@
       <c r="A383" t="s">
         <v>11</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="8">
         <v>-1.558667268502057E-5</v>
       </c>
       <c r="C383" t="s">
@@ -6900,7 +6900,7 @@
       <c r="A384" t="s">
         <v>9</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="8">
         <v>-9.1151142459881411E-5</v>
       </c>
       <c r="C384" t="s">
@@ -6920,7 +6920,7 @@
       <c r="A385" t="s">
         <v>7</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="8">
         <v>0</v>
       </c>
       <c r="C385" t="s">
@@ -6940,7 +6940,7 @@
       <c r="A386" t="s">
         <v>4</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="8">
         <v>1.4574999999999999E-4</v>
       </c>
       <c r="C386" t="s">
@@ -7037,8 +7037,8 @@
       <c r="A395" t="s">
         <v>43</v>
       </c>
-      <c r="B395" s="7">
-        <v>4.0331047028303097E-5</v>
+      <c r="B395" s="8">
+        <v>4.0241569280624387E-5</v>
       </c>
       <c r="D395" t="s">
         <v>2</v>
@@ -7057,8 +7057,8 @@
       <c r="A396" t="s">
         <v>42</v>
       </c>
-      <c r="B396" s="7">
-        <v>1.1365159880369899E-6</v>
+      <c r="B396" s="8">
+        <v>1.13473599776626E-6</v>
       </c>
       <c r="D396" t="s">
         <v>2</v>
@@ -7077,8 +7077,8 @@
       <c r="A397" t="s">
         <v>41</v>
       </c>
-      <c r="B397" s="7">
-        <v>0.13685466003418001</v>
+      <c r="B397" s="8">
+        <v>0.13216171264648399</v>
       </c>
       <c r="D397" t="s">
         <v>2</v>
@@ -7097,8 +7097,8 @@
       <c r="A398" t="s">
         <v>40</v>
       </c>
-      <c r="B398" s="7">
-        <v>6.41925394535065E-4</v>
+      <c r="B398" s="8">
+        <v>6.3666582107543899E-4</v>
       </c>
       <c r="D398" t="s">
         <v>2</v>
@@ -7117,8 +7117,8 @@
       <c r="A399" t="s">
         <v>39</v>
       </c>
-      <c r="B399" s="7">
-        <v>4.3919458403252099E-7</v>
+      <c r="B399" s="8">
+        <v>4.1431200224906201E-7</v>
       </c>
       <c r="D399" t="s">
         <v>2</v>
@@ -7137,8 +7137,8 @@
       <c r="A400" t="s">
         <v>38</v>
       </c>
-      <c r="B400" s="7">
-        <v>7.3833984788507204E-7</v>
+      <c r="B400" s="8">
+        <v>7.3718349449336499E-7</v>
       </c>
       <c r="D400" t="s">
         <v>2</v>
@@ -7157,8 +7157,8 @@
       <c r="A401" t="s">
         <v>37</v>
       </c>
-      <c r="B401" s="7">
-        <v>8.051420561969281E-6</v>
+      <c r="B401" s="8">
+        <v>8.03881045430899E-6</v>
       </c>
       <c r="D401" t="s">
         <v>2</v>
@@ -7177,7 +7177,7 @@
       <c r="A402" t="s">
         <v>36</v>
       </c>
-      <c r="B402" s="7">
+      <c r="B402" s="8">
         <v>1.9810941070318201E-5</v>
       </c>
       <c r="D402" t="s">
@@ -7195,7 +7195,7 @@
       <c r="A403" t="s">
         <v>35</v>
       </c>
-      <c r="B403" s="7">
+      <c r="B403" s="8">
         <v>2.0715177524834898E-6</v>
       </c>
       <c r="D403" t="s">
@@ -7212,8 +7212,8 @@
       <c r="A404" t="s">
         <v>34</v>
       </c>
-      <c r="B404" s="7">
-        <v>6.5697851823642905E-7</v>
+      <c r="B404" s="8">
+        <v>6.0064357239752992E-7</v>
       </c>
       <c r="D404" t="s">
         <v>2</v>
@@ -7229,7 +7229,7 @@
       <c r="A405" t="s">
         <v>31</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C405" t="s">
@@ -7249,7 +7249,7 @@
       <c r="A406" t="s">
         <v>30</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="8">
         <v>4.552831460574933E-6</v>
       </c>
       <c r="C406" t="s">
@@ -7269,7 +7269,7 @@
       <c r="A407" t="s">
         <v>28</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="8">
         <v>-1.110646271089066E-6</v>
       </c>
       <c r="C407" t="s">
@@ -7289,7 +7289,7 @@
       <c r="A408" t="s">
         <v>26</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="8">
         <v>4.7499999999999999E-3</v>
       </c>
       <c r="C408" t="s">
@@ -7309,7 +7309,7 @@
       <c r="A409" t="s">
         <v>24</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="8">
         <v>5.4858274150635495E-4</v>
       </c>
       <c r="C409" t="s">
@@ -7329,7 +7329,7 @@
       <c r="A410" t="s">
         <v>24</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="8">
         <v>4.7031501118356461E-4</v>
       </c>
       <c r="C410" t="s">
@@ -7349,7 +7349,7 @@
       <c r="A411" t="s">
         <v>22</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="8">
         <v>0</v>
       </c>
       <c r="C411" t="s">
@@ -7369,7 +7369,7 @@
       <c r="A412" t="s">
         <v>20</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="8">
         <v>3.4146235954311999E-6</v>
       </c>
       <c r="C412" t="s">
@@ -7389,8 +7389,8 @@
       <c r="A413" t="s">
         <v>17</v>
       </c>
-      <c r="B413">
-        <v>4.3652462005615199E-2</v>
+      <c r="B413" s="8">
+        <v>4.21555519104004E-2</v>
       </c>
       <c r="C413" t="s">
         <v>16</v>
@@ -7409,7 +7409,7 @@
       <c r="A414" t="s">
         <v>14</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="8">
         <v>6.7000391863889733E-4</v>
       </c>
       <c r="C414" t="s">
@@ -7429,7 +7429,7 @@
       <c r="A415" t="s">
         <v>11</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="8">
         <v>-1.2216686039759209E-5</v>
       </c>
       <c r="C415" t="s">
@@ -7449,7 +7449,7 @@
       <c r="A416" t="s">
         <v>9</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="8">
         <v>-7.1443399890466525E-5</v>
       </c>
       <c r="C416" t="s">
@@ -7469,7 +7469,7 @@
       <c r="A417" t="s">
         <v>7</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="8">
         <v>0</v>
       </c>
       <c r="C417" t="s">
@@ -7489,7 +7489,7 @@
       <c r="A418" t="s">
         <v>4</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="8">
         <v>7.9499999999999981E-5</v>
       </c>
       <c r="C418" t="s">
@@ -7577,8 +7577,8 @@
       <c r="A427" t="s">
         <v>43</v>
       </c>
-      <c r="B427">
-        <v>4.0331047028303097E-5</v>
+      <c r="B427" s="8">
+        <v>4.0241569280624387E-5</v>
       </c>
       <c r="D427" t="s">
         <v>2</v>
@@ -7595,8 +7595,8 @@
       <c r="A428" t="s">
         <v>42</v>
       </c>
-      <c r="B428">
-        <v>1.1365159880369899E-6</v>
+      <c r="B428" s="8">
+        <v>1.13473599776626E-6</v>
       </c>
       <c r="D428" t="s">
         <v>2</v>
@@ -7614,8 +7614,8 @@
       <c r="A429" t="s">
         <v>41</v>
       </c>
-      <c r="B429">
-        <v>0.163317047119141</v>
+      <c r="B429" s="8">
+        <v>0.15974993896484399</v>
       </c>
       <c r="D429" t="s">
         <v>2</v>
@@ -7633,8 +7633,8 @@
       <c r="A430" t="s">
         <v>40</v>
       </c>
-      <c r="B430">
-        <v>6.41925394535065E-4</v>
+      <c r="B430" s="8">
+        <v>6.3666582107543899E-4</v>
       </c>
       <c r="D430" t="s">
         <v>2</v>
@@ -7652,8 +7652,8 @@
       <c r="A431" t="s">
         <v>39</v>
       </c>
-      <c r="B431">
-        <v>4.3919458403252099E-7</v>
+      <c r="B431" s="8">
+        <v>4.1431200224906201E-7</v>
       </c>
       <c r="D431" t="s">
         <v>2</v>
@@ -7671,8 +7671,8 @@
       <c r="A432" t="s">
         <v>38</v>
       </c>
-      <c r="B432">
-        <v>7.3833984788507204E-7</v>
+      <c r="B432" s="8">
+        <v>7.3718349449336499E-7</v>
       </c>
       <c r="D432" t="s">
         <v>2</v>
@@ -7690,8 +7690,8 @@
       <c r="A433" t="s">
         <v>37</v>
       </c>
-      <c r="B433">
-        <v>8.051420561969281E-6</v>
+      <c r="B433" s="8">
+        <v>8.03881045430899E-6</v>
       </c>
       <c r="D433" t="s">
         <v>2</v>
@@ -7709,7 +7709,7 @@
       <c r="A434" t="s">
         <v>36</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="8">
         <v>1.9810941070318201E-5</v>
       </c>
       <c r="D434" t="s">
@@ -7728,7 +7728,7 @@
       <c r="A435" t="s">
         <v>35</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="8">
         <v>2.0715177524834898E-6</v>
       </c>
       <c r="D435" t="s">
@@ -7747,8 +7747,8 @@
       <c r="A436" t="s">
         <v>34</v>
       </c>
-      <c r="B436">
-        <v>7.8401272185146803E-7</v>
+      <c r="B436" s="8">
+        <v>7.2602549334987994E-7</v>
       </c>
       <c r="D436" t="s">
         <v>2</v>
@@ -7766,7 +7766,7 @@
       <c r="A437" t="s">
         <v>31</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="8">
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="C437" t="s">
@@ -7788,7 +7788,7 @@
       <c r="A438" t="s">
         <v>30</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="8">
         <v>6.3136019290573972E-6</v>
       </c>
       <c r="C438" t="s">
@@ -7810,7 +7810,7 @@
       <c r="A439" t="s">
         <v>28</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="8">
         <v>-1.4868184677183509E-6</v>
       </c>
       <c r="C439" t="s">
@@ -7832,7 +7832,7 @@
       <c r="A440" t="s">
         <v>26</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="8">
         <v>6.7499999999999999E-3</v>
       </c>
       <c r="C440" t="s">
@@ -7854,7 +7854,7 @@
       <c r="A441" t="s">
         <v>24</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="8">
         <v>6.4472049632657109E-4</v>
       </c>
       <c r="C441" t="s">
@@ -7876,7 +7876,7 @@
       <c r="A442" t="s">
         <v>24</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="8">
         <v>5.4585181854230596E-4</v>
       </c>
       <c r="C442" t="s">
@@ -7898,7 +7898,7 @@
       <c r="A443" t="s">
         <v>22</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="8">
         <v>0</v>
       </c>
       <c r="C443" t="s">
@@ -7920,7 +7920,7 @@
       <c r="A444" t="s">
         <v>20</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="8">
         <v>4.7352014467930494E-6</v>
       </c>
       <c r="C444" t="s">
@@ -7942,8 +7942,8 @@
       <c r="A445" t="s">
         <v>17</v>
       </c>
-      <c r="B445">
-        <v>5.2093154907226602E-2</v>
+      <c r="B445" s="8">
+        <v>5.0955352783203102E-2</v>
       </c>
       <c r="C445" t="s">
         <v>16</v>
@@ -7964,7 +7964,7 @@
       <c r="A446" t="s">
         <v>14</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="8">
         <v>8.969320166169175E-4</v>
       </c>
       <c r="C446" t="s">
@@ -7986,7 +7986,7 @@
       <c r="A447" t="s">
         <v>11</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="8">
         <v>-1.6354436953558479E-5</v>
       </c>
       <c r="C447" t="s">
@@ -8008,7 +8008,7 @@
       <c r="A448" t="s">
         <v>9</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="8">
         <v>-9.5641041723908536E-5</v>
       </c>
       <c r="C448" t="s">
@@ -8030,7 +8030,7 @@
       <c r="A449" t="s">
         <v>7</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="8">
         <v>0</v>
       </c>
       <c r="C449" t="s">
@@ -8052,7 +8052,7 @@
       <c r="A450" t="s">
         <v>4</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="8">
         <v>1.4574999999999999E-4</v>
       </c>
       <c r="C450" t="s">
